--- a/Datacor_processos.xlsx
+++ b/Datacor_processos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIONE\Downloads\dmpes 4.8 vip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJPI\Downloads\ADD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9F380-49C3-4CA1-B9C4-F2316C1B582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4859" uniqueCount="1498">
   <si>
     <t>row_orgao_julgador</t>
   </si>
@@ -3412,12 +3411,1116 @@
   </si>
   <si>
     <t>Povoada Guabiraba</t>
+  </si>
+  <si>
+    <t>0000698-70.2017.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800010-02.2022.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800548-80.2022.8.18.0054</t>
+  </si>
+  <si>
+    <t>0810000-15.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>AÇÃO PENAL DE COMPETÊNCIA DO JÚRI</t>
+  </si>
+  <si>
+    <t>PROCESSO CRIMINAL|PROCEDIMENTO COMUM|AÇÃO PENAL DE COMPETÊNCIA DO JÚRI|</t>
+  </si>
+  <si>
+    <t>Feminicídio</t>
+  </si>
+  <si>
+    <t>12091</t>
+  </si>
+  <si>
+    <t>DIREITO PENAL|Crimes contra a vida|Feminicídio|</t>
+  </si>
+  <si>
+    <t>2025-08-25 11:43:26.263</t>
+  </si>
+  <si>
+    <t>2025-08-25 11:43:26</t>
+  </si>
+  <si>
+    <t>2022-01-08 18:52:55</t>
+  </si>
+  <si>
+    <t>2025-08-25 11:43:25.859</t>
+  </si>
+  <si>
+    <t>08/01/2022</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>CONTRARRAZÕES-DEFESA | Criminal (Atual) | Remetido ao 2º Grau</t>
+  </si>
+  <si>
+    <t>Procedência (219)</t>
+  </si>
+  <si>
+    <t>2025-08-25 13:05:55.779</t>
+  </si>
+  <si>
+    <t>2025-08-25 13:05:55</t>
+  </si>
+  <si>
+    <t>2022-05-15 18:45:12</t>
+  </si>
+  <si>
+    <t>2025-08-25 13:05:55.061</t>
+  </si>
+  <si>
+    <t>15/05/2022</t>
+  </si>
+  <si>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | FAZER SOLTURA NO BNMP | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>Pautado em Sessão | Réu Preso | Violência contra a mulher</t>
+  </si>
+  <si>
+    <t>Procedência em Parte (221)</t>
+  </si>
+  <si>
+    <t>12/04/2023</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>0800408-12.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>0810907-87.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0801341-17.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0808474-13.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0800589-45.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0803186-50.2025.8.18.0032</t>
+  </si>
+  <si>
+    <t>0800778-25.2022.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800390-88.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>0811283-73.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0802778-59.2025.8.18.0032</t>
+  </si>
+  <si>
+    <t>0802800-20.2025.8.18.0032</t>
+  </si>
+  <si>
+    <t>0803160-86.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0810631-56.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0800495-65.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800454-35.2022.8.18.0054</t>
+  </si>
+  <si>
+    <t>0000070-76.2020.8.18.0054</t>
+  </si>
+  <si>
+    <t>0801512-73.2022.8.18.0054</t>
+  </si>
+  <si>
+    <t>0801099-24.2025.8.18.0032</t>
+  </si>
+  <si>
+    <t>0805861-83.2025.8.18.0032</t>
+  </si>
+  <si>
+    <t>0000106-02.2014.8.18.0096</t>
+  </si>
+  <si>
+    <t>0800384-81.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>0000070-18.2016.8.18.0054</t>
+  </si>
+  <si>
+    <t>0000385-41.2019.8.18.0054</t>
+  </si>
+  <si>
+    <t>0000096-74.2020.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800271-30.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800917-40.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>0806775-84.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0800617-78.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800777-40.2022.8.18.0054</t>
+  </si>
+  <si>
+    <t>0801381-96.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0800295-90.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0802035-83.2024.8.18.0032</t>
+  </si>
+  <si>
+    <t>0800805-42.2021.8.18.0054</t>
+  </si>
+  <si>
+    <t>0800462-75.2023.8.18.0054</t>
+  </si>
+  <si>
+    <t>AÇÃO PENAL - PROCEDIMENTO SUMÁRIO</t>
+  </si>
+  <si>
+    <t>PROCESSO CRIMINAL|PROCEDIMENTO COMUM|AÇÃO PENAL - PROCEDIMENTO SUMÁRIO|</t>
+  </si>
+  <si>
+    <t>10943</t>
+  </si>
+  <si>
+    <t>Crime de Descumprimento de Medida Protetiva  de Urgência</t>
+  </si>
+  <si>
+    <t>14227</t>
+  </si>
+  <si>
+    <t>DIREITO PENAL|Crimes Previstos na Legislação Extravagante|Crimes Previstos na Lei Maria da Penha|Crime de Descumprimento de Medida Protetiva  de Urgência|</t>
+  </si>
+  <si>
+    <t>2025-06-05 12:03:56.141</t>
+  </si>
+  <si>
+    <t>2025-06-05 12:03:56</t>
+  </si>
+  <si>
+    <t>2023-05-06 16:46:41</t>
+  </si>
+  <si>
+    <t>2025-06-05 12:03:55.857</t>
+  </si>
+  <si>
+    <t>06/05/2023</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>AGUARDANDO INQUÉRITO | Criminal (Atual) | DEPRECAR FISCALIZAÇÃO | maio | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>INQUÉRITO POLICIAL</t>
+  </si>
+  <si>
+    <t>PROCESSO CRIMINAL|PROCEDIMENTOS INVESTIGATÓRIOS|INQUÉRITO POLICIAL|</t>
+  </si>
+  <si>
+    <t>Juntada de Petição de documento comprobatório</t>
+  </si>
+  <si>
+    <t>2025-06-11 12:31:11.251</t>
+  </si>
+  <si>
+    <t>2025-06-11 12:31:11</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:46:15</t>
+  </si>
+  <si>
+    <t>2025-07-02 11:52:18.808</t>
+  </si>
+  <si>
+    <t>Juntada de certidão</t>
+  </si>
+  <si>
+    <t>2025-06-17 12:43:46.007</t>
+  </si>
+  <si>
+    <t>2025-06-17 12:43:46</t>
+  </si>
+  <si>
+    <t>2024-02-19 21:52:10</t>
+  </si>
+  <si>
+    <t>2025-08-20 13:30:39.946</t>
+  </si>
+  <si>
+    <t>19/02/2024</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>AGUARDANDO INQUÉRITO | Criminal (Atual)</t>
+  </si>
+  <si>
+    <t>AÇÃO PENAL - PROCEDIMENTO ORDINÁRIO</t>
+  </si>
+  <si>
+    <t>PROCESSO CRIMINAL|PROCEDIMENTO COMUM|AÇÃO PENAL - PROCEDIMENTO ORDINÁRIO|</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>2025-06-25 16:02:58.383</t>
+  </si>
+  <si>
+    <t>2025-06-25 16:02:58</t>
+  </si>
+  <si>
+    <t>2024-10-02 19:13:40</t>
+  </si>
+  <si>
+    <t>2025-06-25 16:02:57.853</t>
+  </si>
+  <si>
+    <t>02/10/2024</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>TERMO CIRCUNSTANCIADO</t>
+  </si>
+  <si>
+    <t>PROCESSO CRIMINAL|PROCEDIMENTOS INVESTIGATÓRIOS|TERMO CIRCUNSTANCIADO|</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>2025-06-25 10:59:17.233</t>
+  </si>
+  <si>
+    <t>2025-06-25 10:59:17</t>
+  </si>
+  <si>
+    <t>2024-01-24 16:08:33</t>
+  </si>
+  <si>
+    <t>2025-06-25 10:59:17.199</t>
+  </si>
+  <si>
+    <t>24/01/2024</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>2025-06-27 09:47:49.614</t>
+  </si>
+  <si>
+    <t>2025-06-27 09:47:49</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>2025-05-02 14:25:37</t>
+  </si>
+  <si>
+    <t>2025-06-27 09:47:49.585</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>LEI MARIA DA PENHA | VANIA</t>
+  </si>
+  <si>
+    <t>Juntada de Petição de apelação</t>
+  </si>
+  <si>
+    <t>2025-07-11 14:02:30.053</t>
+  </si>
+  <si>
+    <t>2025-07-11 14:02:30</t>
+  </si>
+  <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>2022-06-22 16:36:57</t>
+  </si>
+  <si>
+    <t>2025-07-04 16:16:12.916</t>
+  </si>
+  <si>
+    <t>22/06/2022</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>Agendar AIJ criminal | AGUARDANDO ALEGAÇÕES FINAIS DAS PARTES | Criminal (Atual) | MPU | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>17/08/2024</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>2025-07-04 12:18:57.826</t>
+  </si>
+  <si>
+    <t>2025-07-04 12:18:57</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:08:17</t>
+  </si>
+  <si>
+    <t>2025-07-10 12:46:42.183</t>
+  </si>
+  <si>
+    <t>Agendar AIJ criminal | concluso sentença | Criminal (Atual)</t>
+  </si>
+  <si>
+    <t>Sentença confirmada (12252)</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Abandono de incapaz</t>
+  </si>
+  <si>
+    <t>3391</t>
+  </si>
+  <si>
+    <t>DIREITO PENAL|Periclitação da Vida e da Saúde|Abandono de incapaz|</t>
+  </si>
+  <si>
+    <t>2025-07-16 13:11:11.067</t>
+  </si>
+  <si>
+    <t>2025-07-16 13:11:11</t>
+  </si>
+  <si>
+    <t>2024-12-24 15:13:15</t>
+  </si>
+  <si>
+    <t>2025-07-16 13:11:11.039</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | LEI MARIA DA PENHA</t>
+  </si>
+  <si>
+    <t>2025-07-17 10:34:16.025</t>
+  </si>
+  <si>
+    <t>2025-07-17 10:34:16</t>
+  </si>
+  <si>
+    <t>2025-04-17 14:19:15</t>
+  </si>
+  <si>
+    <t>2025-07-17 10:34:15.97</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>AUTO DE PRISÃO EM FLAGRANTE</t>
+  </si>
+  <si>
+    <t>PROCESSO CRIMINAL|PROCEDIMENTOS INVESTIGATÓRIOS|AUTO DE PRISÃO EM FLAGRANTE|</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>Redistribuído por sorteio em razão de incompetência</t>
+  </si>
+  <si>
+    <t>2025-07-22 09:01:26.128</t>
+  </si>
+  <si>
+    <t>2025-07-22 09:01:26</t>
+  </si>
+  <si>
+    <t>2025-04-19 13:46:15</t>
+  </si>
+  <si>
+    <t>2025-07-22 09:01:26.186</t>
+  </si>
+  <si>
+    <t>19/04/2025</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>2025-07-22 19:12:29.309</t>
+  </si>
+  <si>
+    <t>2025-07-22 19:12:29</t>
+  </si>
+  <si>
+    <t>2024-04-10 20:14:33</t>
+  </si>
+  <si>
+    <t>2025-07-22 19:12:29.359</t>
+  </si>
+  <si>
+    <t>2025-07-25 12:49:25.143</t>
+  </si>
+  <si>
+    <t>2025-07-25 12:49:25</t>
+  </si>
+  <si>
+    <t>2024-11-30 17:22:11</t>
+  </si>
+  <si>
+    <t>2025-07-25 12:49:24.782</t>
+  </si>
+  <si>
+    <t>30/11/2024</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>2025-07-29 15:40:58.579</t>
+  </si>
+  <si>
+    <t>2025-07-29 15:40:58</t>
+  </si>
+  <si>
+    <t>2023-05-31 18:00:43</t>
+  </si>
+  <si>
+    <t>2025-08-18 12:47:03.418</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>Pedido conhecido em parte e procedente em parte (12330)</t>
+  </si>
+  <si>
+    <t>2025-07-30 16:29:00.423</t>
+  </si>
+  <si>
+    <t>2025-07-30 16:29:00</t>
+  </si>
+  <si>
+    <t>2022-04-30 08:24:02</t>
+  </si>
+  <si>
+    <t>2025-08-25 09:33:06.566</t>
+  </si>
+  <si>
+    <t>30/04/2022</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>CERTIDÃO DE ANTECEDENTES ATUAL | concluso sentença | Criminal (Atual) | JUNTADA DE ÓBITO | MPU | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>Improcedência (220)</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:09:06.64</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:09:06</t>
+  </si>
+  <si>
+    <t>2020-04-01 13:00:09</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:09:06.614</t>
+  </si>
+  <si>
+    <t>01/04/2020</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | MPU | MULTIMETAS-MAAT | PROC.ANTIGOS-DATACOR</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Juntada de Petição de petição</t>
+  </si>
+  <si>
+    <t>2025-08-06 12:33:29.143</t>
+  </si>
+  <si>
+    <t>2025-08-06 12:33:29</t>
+  </si>
+  <si>
+    <t>2022-11-26 15:43:59</t>
+  </si>
+  <si>
+    <t>2025-08-06 12:33:28.361</t>
+  </si>
+  <si>
+    <t>26/11/2022</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>AGUARDANDO I.P | Criminal (Atual) | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>2025-08-07 12:22:28.767</t>
+  </si>
+  <si>
+    <t>2025-08-07 12:22:28</t>
+  </si>
+  <si>
+    <t>2025-02-15 20:40:38</t>
+  </si>
+  <si>
+    <t>2025-08-07 12:22:28.831</t>
+  </si>
+  <si>
+    <t>15/02/2025</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>AGUARDANDO INQUÉRITO | fevereiro</t>
+  </si>
+  <si>
+    <t>2025-08-08 10:28:07.16</t>
+  </si>
+  <si>
+    <t>2025-08-08 10:28:07</t>
+  </si>
+  <si>
+    <t>2025-08-03 15:49:09</t>
+  </si>
+  <si>
+    <t>2025-08-08 10:28:07.335</t>
+  </si>
+  <si>
+    <t>Réu Preso</t>
+  </si>
+  <si>
+    <t>Violência Doméstica Contra a Mulher</t>
+  </si>
+  <si>
+    <t>10949</t>
+  </si>
+  <si>
+    <t>DIREITO PENAL|Violência Doméstica Contra a Mulher|</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:12:18.081</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:12:18</t>
+  </si>
+  <si>
+    <t>2014-05-23 12:58:43</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:11:01.213</t>
+  </si>
+  <si>
+    <t>23/05/2014</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>4112</t>
+  </si>
+  <si>
+    <t>AG. CUMP. MANDADO CITAÇÃO | Criminal (Atual) | MPU | MULTIMETAS-MAAT | PROC.ANTIGOS-DATACOR | Processo Antigo | VIOLÊNCIA CONTRA A MULHER</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:25:35.586</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:25:35</t>
+  </si>
+  <si>
+    <t>2023-04-29 14:47:06</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:25:35.539</t>
+  </si>
+  <si>
+    <t>Ag. Resp. Delegado | Criminal (Atual) | MPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiência de instrução e julgamento  #Oculto# conduzida por #Oculto# em/para #Oculto#,  #Oculto#. </t>
+  </si>
+  <si>
+    <t>2016-02-17 12:31:20</t>
+  </si>
+  <si>
+    <t>2025-08-22 13:09:13.808</t>
+  </si>
+  <si>
+    <t>17/02/2016</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>3477</t>
+  </si>
+  <si>
+    <t>AGUARDANDO SANIDADE | Criminal (Atual) | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>2019-11-08 10:41:36</t>
+  </si>
+  <si>
+    <t>2025-08-22 08:43:09.137</t>
+  </si>
+  <si>
+    <t>08/11/2019</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2117</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | MULTIMETAS-MAAT | PROC.ANTIGOS-DATACOR</t>
+  </si>
+  <si>
+    <t>23/06/2022</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:45:52.855</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:45:52</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:10:05</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:45:52.825</t>
+  </si>
+  <si>
+    <t>16/06/2020</t>
+  </si>
+  <si>
+    <t>1896</t>
+  </si>
+  <si>
+    <t>2025-08-18 12:47:43.658</t>
+  </si>
+  <si>
+    <t>2025-08-18 12:47:43</t>
+  </si>
+  <si>
+    <t>2023-03-28 13:45:30</t>
+  </si>
+  <si>
+    <t>2025-08-18 12:47:43.132</t>
+  </si>
+  <si>
+    <t>28/03/2023</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | INTIMAR - AUDIENCIA DESIGNADA | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>Julgado procedente o pedido</t>
+  </si>
+  <si>
+    <t>2025-08-18 20:18:29.199</t>
+  </si>
+  <si>
+    <t>2025-08-18 20:18:29</t>
+  </si>
+  <si>
+    <t>2023-09-13 17:19:25</t>
+  </si>
+  <si>
+    <t>2025-08-18 20:17:43.868</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>Prisão em flagrante</t>
+  </si>
+  <si>
+    <t>7929</t>
+  </si>
+  <si>
+    <t>DIREITO PROCESSUAL PENAL|Prisão em flagrante|</t>
+  </si>
+  <si>
+    <t>2025-08-19 11:53:03.979</t>
+  </si>
+  <si>
+    <t>2025-08-19 11:53:03</t>
+  </si>
+  <si>
+    <t>2024-08-15 12:34:25</t>
+  </si>
+  <si>
+    <t>2025-08-19 11:53:03.42</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | Réu preso</t>
+  </si>
+  <si>
+    <t>2025-08-20 14:15:53.99</t>
+  </si>
+  <si>
+    <t>2025-08-20 14:15:53</t>
+  </si>
+  <si>
+    <t>2023-06-26 16:33:03</t>
+  </si>
+  <si>
+    <t>2025-08-20 14:15:53.93</t>
+  </si>
+  <si>
+    <t>26/06/2023</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>concluso sentença | Criminal (Atual) | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>2025-08-21 10:22:56.794</t>
+  </si>
+  <si>
+    <t>2025-08-21 10:22:56</t>
+  </si>
+  <si>
+    <t>2022-06-22 13:28:09</t>
+  </si>
+  <si>
+    <t>2025-08-21 10:22:56.738</t>
+  </si>
+  <si>
+    <t>AG. RESP. OFÍCIOS | concluso sentença | Criminal (Atual) | MULTIMETAS-MAAT | VISTAS AO MP</t>
+  </si>
+  <si>
+    <t>2025-08-21 10:16:34.988</t>
+  </si>
+  <si>
+    <t>2025-08-21 10:16:34</t>
+  </si>
+  <si>
+    <t>2024-02-20 17:57:13</t>
+  </si>
+  <si>
+    <t>2025-08-21 10:16:34.923</t>
+  </si>
+  <si>
+    <t>20/02/2024</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | DIONE | DR. SAMUEL | INTIMAR - AUDIENCIA DESIGNADA | REU PRESO</t>
+  </si>
+  <si>
+    <t>2024-01-16 10:27:12</t>
+  </si>
+  <si>
+    <t>2025-08-22 21:04:18.039</t>
+  </si>
+  <si>
+    <t>16/01/2024</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>AGOSTO | Criminal (Atual) | DIA 19 | INTIMAR - AUDIENCIA DESIGNADA | MPU</t>
+  </si>
+  <si>
+    <t>Analisar Documentos não lidos</t>
+  </si>
+  <si>
+    <t>2025-08-22 08:43:09.479</t>
+  </si>
+  <si>
+    <t>2025-08-22 08:43:09</t>
+  </si>
+  <si>
+    <t>Preparar intimação de designação de audiência</t>
+  </si>
+  <si>
+    <t>2025-08-22 13:09:40.738</t>
+  </si>
+  <si>
+    <t>2025-08-22 13:09:40</t>
+  </si>
+  <si>
+    <t>Audiência realizada sem sentença</t>
+  </si>
+  <si>
+    <t>Coordenação</t>
+  </si>
+  <si>
+    <t>2025-08-22 21:04:18.165</t>
+  </si>
+  <si>
+    <t>2025-08-22 21:04:18</t>
+  </si>
+  <si>
+    <t>Certificar trânsito em julgado</t>
+  </si>
+  <si>
+    <t>2025-08-24 21:48:10.544</t>
+  </si>
+  <si>
+    <t>2025-08-24 21:48:10</t>
+  </si>
+  <si>
+    <t>24/08/2025</t>
+  </si>
+  <si>
+    <t>2024-03-09 15:08:52</t>
+  </si>
+  <si>
+    <t>2025-08-24 21:47:56.35</t>
+  </si>
+  <si>
+    <t>09/03/2024</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | INTIMAR - AUDIENCIA DESIGNADA | VISTAS AO MP</t>
+  </si>
+  <si>
+    <t>2025-08-25 21:27:57.076</t>
+  </si>
+  <si>
+    <t>2025-08-25 21:27:57</t>
+  </si>
+  <si>
+    <t>2021-07-03 21:27:26</t>
+  </si>
+  <si>
+    <t>2025-08-25 21:27:56.539</t>
+  </si>
+  <si>
+    <t>03/07/2021</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>AGENDAR ART 16 DA LEI 11.340/06 | AGENDAR AUDIÊNCIA | Criminal (Atual) | MULTIMETAS-MAAT | PROC.ANTIGOS-DATACOR | VISTAS AO MP | VISTAS DEFENSORIA</t>
+  </si>
+  <si>
+    <t>2025-08-25 09:30:27.392</t>
+  </si>
+  <si>
+    <t>2025-08-25 09:30:27</t>
+  </si>
+  <si>
+    <t>2023-05-24 18:43:12</t>
+  </si>
+  <si>
+    <t>2025-08-25 09:30:27.342</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>Agendar AIJ criminal | AGOSTO | Criminal (Atual) | MULTIMETAS-MAAT</t>
+  </si>
+  <si>
+    <t>Crime Tentado</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>DIREITO PENAL|Crime Tentado|</t>
+  </si>
+  <si>
+    <t>2025-07-30 21:44:17.236</t>
+  </si>
+  <si>
+    <t>2025-07-30 21:44:17</t>
+  </si>
+  <si>
+    <t>2017-10-04 11:01:02</t>
+  </si>
+  <si>
+    <t>2025-07-30 21:44:16.833</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2882</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | JÚRI | MULTIMETAS-MAAT | PROC.ANTIGOS-DATACOR | VISTAS DEFENSORIA | VISTAS DEFESA</t>
+  </si>
+  <si>
+    <t>Pautado em Sessão</t>
+  </si>
+  <si>
+    <t>Pronúncia (10953)</t>
+  </si>
+  <si>
+    <t>07/02/2022</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>[GABINETE]Assinar Despacho Mandado de Audiência</t>
+  </si>
+  <si>
+    <t>Homicídio Simples</t>
+  </si>
+  <si>
+    <t>3370</t>
+  </si>
+  <si>
+    <t>DIREITO PENAL|Crimes contra a vida|Homicídio Simples|</t>
+  </si>
+  <si>
+    <t>2025-08-25 14:19:57.025</t>
+  </si>
+  <si>
+    <t>2025-08-25 14:19:57</t>
+  </si>
+  <si>
+    <t>2024-11-10 00:13:14</t>
+  </si>
+  <si>
+    <t>2025-08-25 12:06:35.604</t>
+  </si>
+  <si>
+    <t>10/11/2024</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>Criminal (Atual) | MULTIMETAS-MAAT | RÉU PRESO</t>
+  </si>
+  <si>
+    <t>Povoado Lagoa do Forte</t>
+  </si>
+  <si>
+    <t>Povoado Atrás da Serra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3427,12 +4530,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3447,7 +4556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3458,11 +4567,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3807,66 +4958,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AV161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="101.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="111.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="71.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="93.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="60.19921875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="41.09765625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="101.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="138.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="85.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="141.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30.75" style="2" customWidth="1"/>
     <col min="48" max="48" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +5163,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4140,7 +5291,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4265,7 +5416,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4390,7 +5541,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4512,7 +5663,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4634,7 +5785,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4753,7 +5904,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4872,7 +6023,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4994,7 +6145,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5116,7 +6267,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5235,7 +6386,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5357,7 +6508,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5479,7 +6630,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5601,7 +6752,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5720,7 +6871,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5842,7 +6993,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5964,7 +7115,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6086,7 +7237,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6208,7 +7359,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6330,7 +7481,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6452,7 +7603,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6571,7 +7722,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6693,7 +7844,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6812,7 +7963,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6931,7 +8082,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7050,7 +8201,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7172,7 +8323,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7294,7 +8445,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7416,7 +8567,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7538,7 +8689,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7660,7 +8811,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7782,7 +8933,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7904,7 +9055,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8026,7 +9177,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8148,7 +9299,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8267,7 +9418,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8389,7 +9540,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8523,7 +9674,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8639,7 +9790,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8761,7 +9912,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8883,7 +10034,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9002,7 +10153,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9124,7 +10275,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9246,7 +10397,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9368,7 +10519,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9487,7 +10638,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9609,7 +10760,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9731,7 +10882,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9853,7 +11004,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9972,7 +11123,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10091,7 +11242,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10210,7 +11361,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10332,7 +11483,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10451,7 +11602,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10570,7 +11721,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10692,7 +11843,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10814,7 +11965,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10933,7 +12084,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11055,7 +12206,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11177,7 +12328,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11299,7 +12450,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11421,7 +12572,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11540,7 +12691,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11662,7 +12813,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11784,7 +12935,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11906,7 +13057,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="67" spans="1:48" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12028,7 +13179,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12150,7 +13301,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12269,7 +13420,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12388,7 +13539,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12507,7 +13658,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12629,7 +13780,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12751,7 +13902,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12873,7 +14024,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12995,7 +14146,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13117,7 +14268,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13239,7 +14390,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13361,7 +14512,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13486,7 +14637,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13608,7 +14759,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13730,7 +14881,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13852,7 +15003,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13974,7 +15125,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14096,7 +15247,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14218,7 +15369,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14340,7 +15491,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14462,7 +15613,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14584,7 +15735,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14706,7 +15857,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14825,7 +15976,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14947,7 +16098,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15069,7 +16220,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15191,7 +16342,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15313,7 +16464,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15435,7 +16586,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15557,7 +16708,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15679,7 +16830,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15801,7 +16952,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15935,7 +17086,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -16057,7 +17208,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -16179,7 +17330,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -16301,7 +17452,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16423,7 +17574,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -16545,7 +17696,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -16667,7 +17818,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -16786,7 +17937,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -16908,7 +18059,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17030,7 +18181,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17152,7 +18303,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17274,7 +18425,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17396,7 +18547,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17518,7 +18669,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="113" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17652,7 +18803,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17774,7 +18925,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17893,7 +19044,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -18015,7 +19166,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -18137,7 +19288,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -18259,7 +19410,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="119" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -18381,7 +19532,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -18503,7 +19654,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="121" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18619,7 +19770,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="122" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18741,7 +19892,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18861,24 +20012,4820 @@
       </c>
       <c r="AV123" t="s">
         <v>1095</v>
+      </c>
+    </row>
+    <row r="124" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>1</v>
+      </c>
+      <c r="B124" s="4">
+        <v>66</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G124" s="4">
+        <v>2497474349</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N124" s="4">
+        <v>997640</v>
+      </c>
+      <c r="O124" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P124" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q124" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R124" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S124" s="4">
+        <v>1</v>
+      </c>
+      <c r="T124" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U124" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V124" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W124" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X124" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Y124" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Z124" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA124" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AB124" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AC124" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AD124" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE124" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF124" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG124" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH124" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AI124" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ124" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="4">
+        <v>80405810</v>
+      </c>
+      <c r="AL124" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AM124" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN124" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AO124" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="AP124" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ124" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU124" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV124" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="125" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>2</v>
+      </c>
+      <c r="B125" s="4">
+        <v>66</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G125" s="4">
+        <v>2497474349</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N125" s="4">
+        <v>1139269</v>
+      </c>
+      <c r="O125" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P125" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q125" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R125" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S125" s="4">
+        <v>2</v>
+      </c>
+      <c r="T125" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U125" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V125" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W125" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X125" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Y125" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Z125" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA125" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AB125" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AC125" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AD125" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE125" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF125" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG125" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH125" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AI125" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ125" s="4">
+        <v>8</v>
+      </c>
+      <c r="AK125" s="4">
+        <v>75179027</v>
+      </c>
+      <c r="AL125" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AM125" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AN125" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AO125" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AP125" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AQ125" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU125" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV125" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="126" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>1813</v>
+      </c>
+      <c r="B126" s="4">
+        <v>66</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G126" s="4">
+        <v>3003251218</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="N126" s="4">
+        <v>772602</v>
+      </c>
+      <c r="O126" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P126" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q126" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R126" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S126" s="4">
+        <v>0</v>
+      </c>
+      <c r="T126" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U126" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V126" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="W126" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X126" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Y126" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Z126" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AA126" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AB126" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AC126" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AD126" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AE126" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AF126" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AG126" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AH126" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AI126" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AJ126" s="4">
+        <v>8</v>
+      </c>
+      <c r="AK126" s="4">
+        <v>51161108</v>
+      </c>
+      <c r="AL126" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AM126" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AN126" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AO126" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AP126" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AQ126" s="4">
+        <v>1813</v>
+      </c>
+      <c r="AU126" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV126" s="4" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="127" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>3791</v>
+      </c>
+      <c r="B127" s="4">
+        <v>66</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G127" s="4">
+        <v>4410868694</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N127" s="4">
+        <v>2003764</v>
+      </c>
+      <c r="O127" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P127" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R127" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S127" s="4">
+        <v>1</v>
+      </c>
+      <c r="U127" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V127" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W127" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X127" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Y127" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="Z127" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA127" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AB127" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AC127" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AD127" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE127" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF127" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG127" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH127" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AI127" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL127" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AM127" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AQ127" s="4">
+        <v>3791</v>
+      </c>
+      <c r="AU127" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV127" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>2</v>
+      </c>
+      <c r="B128" s="4">
+        <v>66</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G128" s="4">
+        <v>2497474349</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N128" s="4">
+        <v>1499694</v>
+      </c>
+      <c r="O128" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P128" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q128" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R128" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S128" s="4">
+        <v>0</v>
+      </c>
+      <c r="U128" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V128" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X128" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Y128" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Z128" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA128" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AB128" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AC128" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AD128" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE128" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF128" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG128" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH128" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AI128" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ128" s="4">
+        <v>8</v>
+      </c>
+      <c r="AL128" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AQ128" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU128" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV128" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>3</v>
+      </c>
+      <c r="B129" s="4">
+        <v>66</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G129" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N129" s="4">
+        <v>2030132</v>
+      </c>
+      <c r="O129" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P129" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q129" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="R129" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S129" s="4">
+        <v>1</v>
+      </c>
+      <c r="U129" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X129" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y129" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Z129" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA129" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AB129" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AC129" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD129" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE129" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF129" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG129" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH129" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI129" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ129" s="4">
+        <v>7</v>
+      </c>
+      <c r="AM129" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ129" s="4">
+        <v>3</v>
+      </c>
+      <c r="AU129" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV129" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="130" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>4</v>
+      </c>
+      <c r="B130" s="4">
+        <v>66</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G130" s="4">
+        <v>4651198206</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N130" s="4">
+        <v>1751162</v>
+      </c>
+      <c r="O130" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P130" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q130" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="R130" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S130" s="4">
+        <v>0</v>
+      </c>
+      <c r="U130" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V130" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="W130" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X130" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Y130" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Z130" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA130" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AB130" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AC130" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AD130" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE130" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF130" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG130" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH130" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AI130" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ130" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL130" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AQ130" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU130" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV130" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>5</v>
+      </c>
+      <c r="B131" s="4">
+        <v>66</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2497474349</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N131" s="4">
+        <v>1963484</v>
+      </c>
+      <c r="O131" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P131" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q131" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R131" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S131" s="4">
+        <v>1</v>
+      </c>
+      <c r="U131" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V131" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W131" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X131" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Y131" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Z131" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA131" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AB131" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AC131" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AD131" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE131" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF131" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG131" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH131" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AI131" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ131" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL131" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM131" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ131" s="4">
+        <v>5</v>
+      </c>
+      <c r="AU131" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV131" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>6</v>
+      </c>
+      <c r="B132" s="4">
+        <v>66</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G132" s="4">
+        <v>4670693243</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N132" s="4">
+        <v>1729453</v>
+      </c>
+      <c r="O132" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P132" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R132" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S132" s="4">
+        <v>0</v>
+      </c>
+      <c r="U132" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V132" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W132" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X132" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Y132" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Z132" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA132" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AB132" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AC132" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AD132" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE132" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF132" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG132" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH132" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AI132" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ132" s="4">
+        <v>9</v>
+      </c>
+      <c r="AQ132" s="4">
+        <v>6</v>
+      </c>
+      <c r="AU132" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV132" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="133" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>7</v>
+      </c>
+      <c r="B133" s="4">
+        <v>66</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G133" s="4">
+        <v>4670693243</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N133" s="4">
+        <v>2162969</v>
+      </c>
+      <c r="O133" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P133" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R133" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S133" s="4">
+        <v>0</v>
+      </c>
+      <c r="U133" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V133" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W133" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X133" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Y133" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Z133" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AA133" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AB133" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AC133" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD133" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE133" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AF133" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG133" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH133" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="AI133" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AJ133" s="4">
+        <v>6</v>
+      </c>
+      <c r="AL133" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AQ133" s="4">
+        <v>7</v>
+      </c>
+      <c r="AU133" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV133" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>8</v>
+      </c>
+      <c r="B134" s="4">
+        <v>66</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G134" s="4">
+        <v>4574454021</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N134" s="4">
+        <v>1189188</v>
+      </c>
+      <c r="O134" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P134" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q134" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R134" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S134" s="4">
+        <v>1</v>
+      </c>
+      <c r="T134" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U134" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V134" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W134" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X134" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Y134" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Z134" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AA134" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB134" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AC134" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AD134" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE134" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AF134" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AG134" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AH134" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AI134" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AJ134" s="4">
+        <v>8</v>
+      </c>
+      <c r="AK134" s="4">
+        <v>104317703</v>
+      </c>
+      <c r="AL134" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AM134" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN134" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AO134" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AP134" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AQ134" s="4">
+        <v>8</v>
+      </c>
+      <c r="AR134" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS134" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU134" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>9</v>
+      </c>
+      <c r="B135" s="4">
+        <v>66</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G135" s="4">
+        <v>2497474330</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N135" s="4">
+        <v>1494291</v>
+      </c>
+      <c r="O135" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P135" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q135" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R135" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S135" s="4">
+        <v>0</v>
+      </c>
+      <c r="U135" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V135" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W135" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X135" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y135" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Z135" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AA135" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AB135" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AC135" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD135" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE135" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF135" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AG135" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH135" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI135" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AJ135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="4">
+        <v>117167075</v>
+      </c>
+      <c r="AL135" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AN135" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AO135" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AP135" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AQ135" s="4">
+        <v>9</v>
+      </c>
+      <c r="AU135" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV135" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="136" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>11</v>
+      </c>
+      <c r="B136" s="4">
+        <v>66</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G136" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="N136" s="4">
+        <v>2040688</v>
+      </c>
+      <c r="O136" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P136" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R136" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S136" s="4">
+        <v>1</v>
+      </c>
+      <c r="U136" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V136" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X136" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Y136" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Z136" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA136" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AB136" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AC136" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD136" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE136" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF136" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG136" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AH136" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AI136" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AJ136" s="4">
+        <v>3</v>
+      </c>
+      <c r="AL136" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AM136" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ136" s="4">
+        <v>11</v>
+      </c>
+      <c r="AU136" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV136" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="137" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>12</v>
+      </c>
+      <c r="B137" s="4">
+        <v>66</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G137" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N137" s="4">
+        <v>2149908</v>
+      </c>
+      <c r="O137" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P137" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q137" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R137" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S137" s="4">
+        <v>1</v>
+      </c>
+      <c r="U137" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V137" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X137" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Y137" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="Z137" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA137" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AB137" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AC137" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AD137" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE137" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF137" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="AG137" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="AH137" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AI137" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="AJ137" s="4">
+        <v>8</v>
+      </c>
+      <c r="AL137" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM137" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ137" s="4">
+        <v>12</v>
+      </c>
+      <c r="AU137" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV137" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="138" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>13</v>
+      </c>
+      <c r="B138" s="4">
+        <v>66</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G138" s="4">
+        <v>4651198353</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N138" s="4">
+        <v>2150424</v>
+      </c>
+      <c r="O138" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P138" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q138" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R138" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S138" s="4">
+        <v>0</v>
+      </c>
+      <c r="U138" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V138" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="W138" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X138" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Y138" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Z138" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA138" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AB138" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AC138" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AD138" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE138" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF138" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AG138" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AH138" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AI138" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AJ138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ138" s="4">
+        <v>13</v>
+      </c>
+      <c r="AU138" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV138" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>14</v>
+      </c>
+      <c r="B139" s="4">
+        <v>66</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G139" s="4">
+        <v>2497474330</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N139" s="4">
+        <v>1796355</v>
+      </c>
+      <c r="O139" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P139" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q139" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S139" s="4">
+        <v>1</v>
+      </c>
+      <c r="U139" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V139" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W139" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X139" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="Y139" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Z139" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA139" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AB139" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AC139" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD139" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE139" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF139" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG139" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH139" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI139" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL139" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM139" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ139" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU139" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV139" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>15</v>
+      </c>
+      <c r="B140" s="4">
+        <v>66</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G140" s="4">
+        <v>2497474349</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N140" s="4">
+        <v>2021003</v>
+      </c>
+      <c r="O140" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P140" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R140" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S140" s="4">
+        <v>1</v>
+      </c>
+      <c r="U140" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V140" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W140" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X140" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Y140" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Z140" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA140" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AB140" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AC140" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AD140" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE140" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AF140" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG140" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AH140" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AI140" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AJ140" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM140" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ140" s="4">
+        <v>15</v>
+      </c>
+      <c r="AU140" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV140" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="141" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>17</v>
+      </c>
+      <c r="B141" s="4">
+        <v>66</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G141" s="4">
+        <v>4574454021</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N141" s="4">
+        <v>1523592</v>
+      </c>
+      <c r="O141" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P141" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q141" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R141" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S141" s="4">
+        <v>1</v>
+      </c>
+      <c r="U141" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V141" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W141" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X141" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y141" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Z141" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA141" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AB141" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AC141" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AD141" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE141" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AF141" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG141" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AH141" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AI141" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AJ141" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK141" s="4">
+        <v>123379117</v>
+      </c>
+      <c r="AL141" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AM141" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN141" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AO141" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="AP141" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AQ141" s="4">
+        <v>17</v>
+      </c>
+      <c r="AU141" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV141" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="142" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>18</v>
+      </c>
+      <c r="B142" s="4">
+        <v>66</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G142" s="4">
+        <v>2497474330</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N142" s="4">
+        <v>1118898</v>
+      </c>
+      <c r="O142" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P142" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q142" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R142" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S142" s="4">
+        <v>1</v>
+      </c>
+      <c r="T142" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U142" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V142" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W142" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X142" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Y142" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Z142" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AA142" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AB142" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AC142" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AD142" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE142" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF142" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AG142" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH142" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AI142" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AJ142" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK142" s="4">
+        <v>123049864</v>
+      </c>
+      <c r="AL142" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AM142" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN142" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AO142" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="AP142" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AQ142" s="4">
+        <v>18</v>
+      </c>
+      <c r="AU142" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV142" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="143" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>20</v>
+      </c>
+      <c r="B143" s="4">
+        <v>66</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G143" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N143" s="4">
+        <v>773024</v>
+      </c>
+      <c r="O143" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P143" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R143" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S143" s="4">
+        <v>1</v>
+      </c>
+      <c r="T143" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U143" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V143" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W143" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X143" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="Y143" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Z143" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA143" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AB143" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AC143" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AD143" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AE143" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF143" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AG143" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AH143" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AI143" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK143" s="4">
+        <v>117566896</v>
+      </c>
+      <c r="AL143" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AM143" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN143" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AO143" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AP143" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AQ143" s="4">
+        <v>20</v>
+      </c>
+      <c r="AU143" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV143" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="144" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>21</v>
+      </c>
+      <c r="B144" s="4">
+        <v>66</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G144" s="4">
+        <v>4651198206</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N144" s="4">
+        <v>1365032</v>
+      </c>
+      <c r="O144" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P144" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="R144" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S144" s="4">
+        <v>0</v>
+      </c>
+      <c r="U144" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V144" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="W144" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X144" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Y144" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Z144" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA144" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AB144" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AC144" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AD144" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE144" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF144" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AG144" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AH144" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AI144" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ144" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL144" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AQ144" s="4">
+        <v>21</v>
+      </c>
+      <c r="AU144" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV144" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="145" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>23</v>
+      </c>
+      <c r="B145" s="4">
+        <v>66</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G145" s="4">
+        <v>4651198353</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N145" s="4">
+        <v>2085255</v>
+      </c>
+      <c r="O145" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P145" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R145" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S145" s="4">
+        <v>0</v>
+      </c>
+      <c r="U145" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V145" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="W145" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X145" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Y145" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Z145" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA145" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AB145" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AC145" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AD145" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE145" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF145" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AG145" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AH145" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AI145" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ145" s="4">
+        <v>9</v>
+      </c>
+      <c r="AL145" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AQ145" s="4">
+        <v>23</v>
+      </c>
+      <c r="AU145" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV145" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="146" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>24</v>
+      </c>
+      <c r="B146" s="4">
+        <v>66</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G146" s="4">
+        <v>4651198353</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M146" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N146" s="4">
+        <v>2262847</v>
+      </c>
+      <c r="O146" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P146" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R146" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S146" s="4">
+        <v>1</v>
+      </c>
+      <c r="U146" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V146" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="W146" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X146" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Y146" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Z146" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="AA146" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AB146" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AC146" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="AD146" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE146" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="AF146" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="AG146" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="AH146" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="AI146" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="AJ146" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM146" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AQ146" s="4">
+        <v>24</v>
+      </c>
+      <c r="AU146" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV146" s="4" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="147" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>25</v>
+      </c>
+      <c r="B147" s="4">
+        <v>66</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G147" s="4">
+        <v>2497474349</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N147" s="4">
+        <v>774104</v>
+      </c>
+      <c r="O147" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P147" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q147" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R147" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S147" s="4">
+        <v>1</v>
+      </c>
+      <c r="T147" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U147" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V147" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W147" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X147" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="Y147" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Z147" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AA147" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AB147" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AC147" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AD147" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AE147" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AF147" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AG147" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AH147" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AI147" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AJ147" s="4">
+        <v>6</v>
+      </c>
+      <c r="AL147" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AM147" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ147" s="4">
+        <v>25</v>
+      </c>
+      <c r="AU147" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV147" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>26</v>
+      </c>
+      <c r="B148" s="4">
+        <v>66</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G148" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N148" s="4">
+        <v>1494277</v>
+      </c>
+      <c r="O148" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P148" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q148" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R148" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S148" s="4">
+        <v>0</v>
+      </c>
+      <c r="U148" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V148" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W148" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X148" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Y148" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Z148" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AA148" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AB148" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AC148" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD148" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE148" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AF148" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AG148" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AH148" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI148" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AJ148" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL148" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AQ148" s="4">
+        <v>26</v>
+      </c>
+      <c r="AU148" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV148" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="149" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>31</v>
+      </c>
+      <c r="B149" s="4">
+        <v>66</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G149" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="N149" s="4">
+        <v>847709</v>
+      </c>
+      <c r="O149" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P149" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q149" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R149" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S149" s="4">
+        <v>0</v>
+      </c>
+      <c r="T149" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U149" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V149" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W149" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X149" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Y149" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Z149" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="AA149" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AB149" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AC149" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AD149" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AE149" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="AF149" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="AG149" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="AH149" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AI149" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="AJ149" s="4">
+        <v>6</v>
+      </c>
+      <c r="AL149" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AQ149" s="4">
+        <v>31</v>
+      </c>
+      <c r="AU149" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV149" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>32</v>
+      </c>
+      <c r="B150" s="4">
+        <v>66</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G150" s="4">
+        <v>2497474330</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N150" s="4">
+        <v>1463165</v>
+      </c>
+      <c r="O150" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P150" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="R150" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S150" s="4">
+        <v>1</v>
+      </c>
+      <c r="U150" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V150" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W150" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X150" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Y150" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Z150" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AA150" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AB150" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AC150" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AD150" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE150" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AF150" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AG150" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AH150" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AI150" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AJ150" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK150" s="4">
+        <v>124396361</v>
+      </c>
+      <c r="AL150" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AM150" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN150" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AO150" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="AP150" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="AQ150" s="4">
+        <v>32</v>
+      </c>
+      <c r="AU150" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AV150" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>33</v>
+      </c>
+      <c r="B151" s="4">
+        <v>66</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G151" s="4">
+        <v>4586866511</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M151" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N151" s="4">
+        <v>1619104</v>
+      </c>
+      <c r="O151" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P151" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q151" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="R151" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S151" s="4">
+        <v>1</v>
+      </c>
+      <c r="U151" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V151" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W151" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X151" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Y151" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Z151" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AA151" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AB151" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AC151" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AD151" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE151" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AF151" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AG151" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AH151" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AI151" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AJ151" s="4">
+        <v>7</v>
+      </c>
+      <c r="AK151" s="4">
+        <v>124630564</v>
+      </c>
+      <c r="AL151" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AM151" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN151" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AO151" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AP151" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AQ151" s="4">
+        <v>33</v>
+      </c>
+      <c r="AU151" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV151" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>34</v>
+      </c>
+      <c r="B152" s="4">
+        <v>66</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G152" s="4">
+        <v>2497474349</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N152" s="4">
+        <v>1917515</v>
+      </c>
+      <c r="O152" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P152" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R152" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S152" s="4">
+        <v>1</v>
+      </c>
+      <c r="U152" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V152" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W152" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X152" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="Y152" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Z152" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="AA152" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AB152" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AC152" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AD152" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE152" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF152" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="AG152" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="AH152" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AI152" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="AJ152" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL152" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AM152" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AQ152" s="4">
+        <v>34</v>
+      </c>
+      <c r="AU152" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV152" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="153" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>35</v>
+      </c>
+      <c r="B153" s="4">
+        <v>66</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G153" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M153" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N153" s="4">
+        <v>1545826</v>
+      </c>
+      <c r="O153" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P153" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q153" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R153" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S153" s="4">
+        <v>1</v>
+      </c>
+      <c r="U153" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V153" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W153" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X153" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Y153" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="Z153" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA153" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AB153" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AC153" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AD153" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE153" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF153" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG153" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH153" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AI153" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ153" s="4">
+        <v>7</v>
+      </c>
+      <c r="AL153" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AM153" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ153" s="4">
+        <v>35</v>
+      </c>
+      <c r="AU153" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV153" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>36</v>
+      </c>
+      <c r="B154" s="4">
+        <v>66</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G154" s="4">
+        <v>4670693278</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N154" s="4">
+        <v>1188351</v>
+      </c>
+      <c r="O154" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P154" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q154" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R154" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S154" s="4">
+        <v>1</v>
+      </c>
+      <c r="T154" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U154" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V154" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W154" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X154" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Y154" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Z154" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA154" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AB154" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AC154" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AD154" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE154" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="AF154" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AG154" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH154" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AI154" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ154" s="4">
+        <v>7</v>
+      </c>
+      <c r="AL154" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AM154" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ154" s="4">
+        <v>36</v>
+      </c>
+      <c r="AU154" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV154" s="4" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>37</v>
+      </c>
+      <c r="B155" s="4">
+        <v>66</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G155" s="4">
+        <v>4670693278</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M155" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N155" s="4">
+        <v>1752265</v>
+      </c>
+      <c r="O155" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P155" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q155" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R155" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S155" s="4">
+        <v>1</v>
+      </c>
+      <c r="U155" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V155" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W155" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X155" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Y155" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="Z155" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA155" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AB155" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AC155" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AD155" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE155" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="AF155" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AG155" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH155" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AI155" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ155" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL155" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AM155" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ155" s="4">
+        <v>37</v>
+      </c>
+      <c r="AU155" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV155" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>39</v>
+      </c>
+      <c r="B156" s="4">
+        <v>66</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G156" s="4">
+        <v>3154347608</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M156" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N156" s="4">
+        <v>772589</v>
+      </c>
+      <c r="O156" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P156" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R156" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S156" s="4">
+        <v>0</v>
+      </c>
+      <c r="T156" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U156" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V156" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W156" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X156" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Y156" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Z156" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AA156" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AB156" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AC156" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AD156" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AE156" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AF156" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AG156" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH156" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AI156" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ156" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK156" s="4">
+        <v>58745579</v>
+      </c>
+      <c r="AL156" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AN156" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AO156" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AP156" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AQ156" s="4">
+        <v>39</v>
+      </c>
+      <c r="AU156" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV156" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="157" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>40</v>
+      </c>
+      <c r="B157" s="4">
+        <v>66</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G157" s="4">
+        <v>4586866553</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M157" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N157" s="4">
+        <v>772474</v>
+      </c>
+      <c r="O157" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P157" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q157" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R157" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S157" s="4">
+        <v>0</v>
+      </c>
+      <c r="T157" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U157" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V157" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W157" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X157" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="Y157" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="Z157" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AA157" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AB157" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AC157" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AD157" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AE157" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AF157" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AG157" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AH157" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AI157" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AJ157" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL157" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AQ157" s="4">
+        <v>40</v>
+      </c>
+      <c r="AU157" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV157" s="4" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>41</v>
+      </c>
+      <c r="B158" s="4">
+        <v>66</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G158" s="4">
+        <v>4647999886</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="M158" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N158" s="4">
+        <v>1722186</v>
+      </c>
+      <c r="O158" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P158" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q158" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R158" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S158" s="4">
+        <v>1</v>
+      </c>
+      <c r="U158" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V158" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W158" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X158" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="Y158" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Z158" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AA158" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AB158" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AC158" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AD158" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE158" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AF158" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AG158" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AH158" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AI158" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AJ158" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL158" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AM158" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ158" s="4">
+        <v>41</v>
+      </c>
+      <c r="AU158" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV158" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="159" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>42</v>
+      </c>
+      <c r="B159" s="4">
+        <v>66</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G159" s="4">
+        <v>4648241099</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N159" s="4">
+        <v>1768888</v>
+      </c>
+      <c r="O159" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P159" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q159" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R159" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S159" s="4">
+        <v>1</v>
+      </c>
+      <c r="U159" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V159" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W159" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X159" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="Y159" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="Z159" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AA159" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AB159" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AC159" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AD159" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE159" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AF159" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AG159" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AH159" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AI159" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AJ159" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK159" s="4">
+        <v>125024172</v>
+      </c>
+      <c r="AL159" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AM159" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN159" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AO159" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AP159" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AQ159" s="4">
+        <v>42</v>
+      </c>
+      <c r="AU159" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AV159" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="160" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>43</v>
+      </c>
+      <c r="B160" s="4">
+        <v>66</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G160" s="4">
+        <v>3003251218</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M160" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N160" s="4">
+        <v>777781</v>
+      </c>
+      <c r="O160" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P160" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q160" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R160" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S160" s="4">
+        <v>0</v>
+      </c>
+      <c r="T160" s="4">
+        <v>8526</v>
+      </c>
+      <c r="U160" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V160" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="W160" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X160" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Y160" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Z160" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA160" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AB160" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AC160" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AD160" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AE160" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF160" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG160" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH160" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AI160" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ160" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK160" s="4">
+        <v>125097507</v>
+      </c>
+      <c r="AL160" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AN160" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AO160" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AP160" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AQ160" s="4">
+        <v>43</v>
+      </c>
+      <c r="AU160" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV160" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="161" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>44</v>
+      </c>
+      <c r="B161" s="4">
+        <v>66</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G161" s="4">
+        <v>4670693191</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M161" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N161" s="4">
+        <v>1516302</v>
+      </c>
+      <c r="O161" s="4">
+        <v>8526</v>
+      </c>
+      <c r="P161" s="4">
+        <v>126</v>
+      </c>
+      <c r="Q161" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R161" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S161" s="4">
+        <v>1</v>
+      </c>
+      <c r="U161" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V161" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W161" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X161" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Y161" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Z161" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA161" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AB161" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC161" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AD161" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE161" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF161" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG161" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH161" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AI161" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ161" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL161" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AM161" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ161" s="4">
+        <v>44</v>
+      </c>
+      <c r="AU161" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AV161" s="4" t="s">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E123">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E125 E128:E1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:AT5 B121:AT123 B66:AT85 B6:AT35 B37:AT45 B36:D36 F36:AT36 B47:AT58 B46:D46 F46:AT46 B60:AT65 B59:D59 F59:AT59 B87:AT91 B86:D86 F86:AT86 B93:AT120 B92:D92 F92:AT92" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEB89040-34E3-46F9-88D0-437DB8C2F947}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Planilha1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AU2:AU123</xm:sqref>
+          <xm:sqref>AU2:AU161</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18887,34 +24834,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D668BC5D-0344-4EE6-82F5-B0B5CFB101DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1082</v>
       </c>
